--- a/data/ClueLayoutTest.xlsx
+++ b/data/ClueLayoutTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ecore/Documents/Colorado School of Mines/2021-2022 Junior Year/CSCI 306/Clue/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077178C6-944A-6A4D-89C3-220B512B8C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD74F8E-5A8F-BD4A-A282-AB8DCF255AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19240" yWindow="500" windowWidth="22280" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20280" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="50">
   <si>
     <t>K#</t>
   </si>
@@ -151,6 +151,36 @@
   </si>
   <si>
     <t>Dark Yellow: adjacency walkways</t>
+  </si>
+  <si>
+    <t>Players</t>
+  </si>
+  <si>
+    <t>Jim: blue</t>
+  </si>
+  <si>
+    <t>Dwight: tan</t>
+  </si>
+  <si>
+    <t>Angela: white</t>
+  </si>
+  <si>
+    <t>Toby: yellow</t>
+  </si>
+  <si>
+    <t>Pam: purple</t>
+  </si>
+  <si>
+    <t>Micheal: grey</t>
+  </si>
+  <si>
+    <t>B*</t>
+  </si>
+  <si>
+    <t>B#</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -173,7 +203,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,8 +282,38 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8E6BF2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00E8DE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAB03D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -261,11 +321,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -314,6 +411,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -324,6 +460,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFDAB03D"/>
+      <color rgb="FF00E8DE"/>
+      <color rgb="FF8E6BF2"/>
       <color rgb="FF854909"/>
       <color rgb="FF874A09"/>
     </mruColors>
@@ -638,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1048,7 +1187,7 @@
       <c r="I6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="18" t="s">
         <v>9</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -1163,7 +1302,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1300,6 +1439,9 @@
       <c r="V9" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="X9" s="23" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -1369,6 +1511,9 @@
       <c r="V10" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="X10" s="24" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -1393,7 +1538,7 @@
       <c r="G11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="19" t="s">
         <v>9</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -1437,6 +1582,9 @@
       </c>
       <c r="V11" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="X11" s="30" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1507,6 +1655,9 @@
       <c r="V12" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="X12" s="25" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -1546,7 +1697,7 @@
       <c r="L13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="22" t="s">
         <v>9</v>
       </c>
       <c r="N13" s="16" t="s">
@@ -1575,6 +1726,9 @@
       </c>
       <c r="V13" s="3" t="s">
         <v>2</v>
+      </c>
+      <c r="X13" s="26" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1591,7 +1745,7 @@
       <c r="D14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1645,8 +1799,11 @@
       <c r="V14" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="X14" s="27" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1663,7 +1820,7 @@
       <c r="E15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="29" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -1713,6 +1870,9 @@
       </c>
       <c r="V15" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="X15" s="28" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1858,11 +2018,11 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>18</v>
+      <c r="B18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>9</v>
@@ -1928,13 +2088,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>9</v>
+        <v>49</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>27</v>
@@ -1997,10 +2157,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>9</v>
@@ -2066,10 +2226,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>9</v>
@@ -2089,7 +2249,7 @@
       <c r="I21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="20" t="s">
         <v>9</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -2135,10 +2295,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>2</v>
